--- a/CumulativeTestsByTypeByCounty/2022-02-22.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-02-22.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84164</v>
+        <v>84219</v>
       </c>
       <c r="C2" s="4">
         <v>2134</v>
       </c>
       <c r="D2" s="4">
-        <v>45626</v>
+        <v>45921</v>
       </c>
       <c r="E2" s="4">
-        <v>131924</v>
+        <v>132274</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6827</v>
+        <v>6833</v>
       </c>
       <c r="C3" s="4">
         <v>350</v>
       </c>
       <c r="D3" s="4">
-        <v>7430</v>
+        <v>7488</v>
       </c>
       <c r="E3" s="4">
-        <v>14607</v>
+        <v>14671</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>86770</v>
+        <v>86831</v>
       </c>
       <c r="C4" s="4">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="D4" s="4">
-        <v>90557</v>
+        <v>91002</v>
       </c>
       <c r="E4" s="4">
-        <v>181974</v>
+        <v>182481</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19228</v>
+        <v>19276</v>
       </c>
       <c r="C5" s="4">
         <v>2981</v>
       </c>
       <c r="D5" s="4">
-        <v>15914</v>
+        <v>16034</v>
       </c>
       <c r="E5" s="4">
-        <v>38123</v>
+        <v>38291</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5177</v>
+        <v>5180</v>
       </c>
       <c r="C6" s="4">
         <v>896</v>
       </c>
       <c r="D6" s="4">
-        <v>2145</v>
+        <v>2162</v>
       </c>
       <c r="E6" s="4">
-        <v>8218</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E7" s="4">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>123009</v>
+        <v>123143</v>
       </c>
       <c r="C8" s="4">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D8" s="4">
-        <v>19525</v>
+        <v>19820</v>
       </c>
       <c r="E8" s="4">
-        <v>144039</v>
+        <v>144469</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>33517</v>
+        <v>33554</v>
       </c>
       <c r="C9" s="4">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="D9" s="4">
-        <v>6506</v>
+        <v>6533</v>
       </c>
       <c r="E9" s="4">
-        <v>41923</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2892</v>
+        <v>2897</v>
       </c>
       <c r="C10" s="4">
         <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="E10" s="4">
-        <v>5518</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16395</v>
+        <v>16417</v>
       </c>
       <c r="C11" s="4">
         <v>904</v>
       </c>
       <c r="D11" s="4">
-        <v>10676</v>
+        <v>10774</v>
       </c>
       <c r="E11" s="4">
-        <v>27975</v>
+        <v>28095</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>110067</v>
+        <v>110170</v>
       </c>
       <c r="C12" s="4">
         <v>2734</v>
       </c>
       <c r="D12" s="4">
-        <v>50038</v>
+        <v>50148</v>
       </c>
       <c r="E12" s="4">
-        <v>162839</v>
+        <v>163052</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1264,13 +1264,13 @@
         <v>2390</v>
       </c>
       <c r="C13" s="4">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D13" s="4">
-        <v>4630</v>
+        <v>4643</v>
       </c>
       <c r="E13" s="4">
-        <v>7646</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>56940</v>
+        <v>56984</v>
       </c>
       <c r="C14" s="4">
-        <v>8561</v>
+        <v>8565</v>
       </c>
       <c r="D14" s="4">
-        <v>27364</v>
+        <v>27461</v>
       </c>
       <c r="E14" s="4">
-        <v>92865</v>
+        <v>93010</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>463234</v>
+        <v>463796</v>
       </c>
       <c r="C15" s="4">
         <v>16166</v>
       </c>
       <c r="D15" s="4">
-        <v>130627</v>
+        <v>131359</v>
       </c>
       <c r="E15" s="4">
-        <v>610027</v>
+        <v>611321</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4947783</v>
+        <v>4974221</v>
       </c>
       <c r="C16" s="4">
-        <v>80611</v>
+        <v>80653</v>
       </c>
       <c r="D16" s="4">
-        <v>761550</v>
+        <v>765325</v>
       </c>
       <c r="E16" s="4">
-        <v>5789944</v>
+        <v>5820199</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10228</v>
+        <v>10236</v>
       </c>
       <c r="C17" s="4">
         <v>581</v>
       </c>
       <c r="D17" s="4">
-        <v>6170</v>
+        <v>6225</v>
       </c>
       <c r="E17" s="4">
-        <v>16979</v>
+        <v>17042</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13764</v>
+        <v>13772</v>
       </c>
       <c r="C19" s="4">
         <v>614</v>
       </c>
       <c r="D19" s="4">
-        <v>10518</v>
+        <v>10524</v>
       </c>
       <c r="E19" s="4">
-        <v>24896</v>
+        <v>24910</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>97664</v>
+        <v>97727</v>
       </c>
       <c r="C20" s="4">
         <v>10715</v>
       </c>
       <c r="D20" s="4">
-        <v>42859</v>
+        <v>42994</v>
       </c>
       <c r="E20" s="4">
-        <v>151238</v>
+        <v>151436</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>665050</v>
+        <v>665858</v>
       </c>
       <c r="C21" s="4">
-        <v>27171</v>
+        <v>27183</v>
       </c>
       <c r="D21" s="4">
-        <v>143228</v>
+        <v>143930</v>
       </c>
       <c r="E21" s="4">
-        <v>835449</v>
+        <v>836971</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>505840</v>
+        <v>506255</v>
       </c>
       <c r="C22" s="4">
-        <v>13626</v>
+        <v>13641</v>
       </c>
       <c r="D22" s="4">
-        <v>58101</v>
+        <v>58206</v>
       </c>
       <c r="E22" s="4">
-        <v>577567</v>
+        <v>578102</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9572</v>
+        <v>9578</v>
       </c>
       <c r="C23" s="4">
         <v>179</v>
       </c>
       <c r="D23" s="4">
-        <v>3655</v>
+        <v>3659</v>
       </c>
       <c r="E23" s="4">
-        <v>13406</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,16 +1448,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E24" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26473</v>
+        <v>26508</v>
       </c>
       <c r="C25" s="4">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="D25" s="4">
-        <v>7219</v>
+        <v>7226</v>
       </c>
       <c r="E25" s="4">
-        <v>35612</v>
+        <v>35656</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>29993</v>
+        <v>30020</v>
       </c>
       <c r="C26" s="4">
         <v>1272</v>
       </c>
       <c r="D26" s="4">
-        <v>50116</v>
+        <v>50231</v>
       </c>
       <c r="E26" s="4">
-        <v>81381</v>
+        <v>81523</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29268</v>
+        <v>29294</v>
       </c>
       <c r="C27" s="4">
         <v>874</v>
       </c>
       <c r="D27" s="4">
-        <v>7789</v>
+        <v>7813</v>
       </c>
       <c r="E27" s="4">
-        <v>37931</v>
+        <v>37981</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>64763</v>
+        <v>64813</v>
       </c>
       <c r="C28" s="4">
         <v>2597</v>
       </c>
       <c r="D28" s="4">
-        <v>16904</v>
+        <v>16946</v>
       </c>
       <c r="E28" s="4">
-        <v>84264</v>
+        <v>84356</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>70556</v>
+        <v>70638</v>
       </c>
       <c r="C29" s="4">
         <v>2345</v>
       </c>
       <c r="D29" s="4">
-        <v>20802</v>
+        <v>20823</v>
       </c>
       <c r="E29" s="4">
-        <v>93703</v>
+        <v>93806</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>22964</v>
+        <v>23002</v>
       </c>
       <c r="C30" s="4">
         <v>2468</v>
       </c>
       <c r="D30" s="4">
-        <v>17530</v>
+        <v>17568</v>
       </c>
       <c r="E30" s="4">
-        <v>42962</v>
+        <v>43038</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7743</v>
+        <v>7745</v>
       </c>
       <c r="C31" s="4">
         <v>349</v>
       </c>
       <c r="D31" s="4">
-        <v>13633</v>
+        <v>13745</v>
       </c>
       <c r="E31" s="4">
-        <v>21725</v>
+        <v>21839</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>504166</v>
+        <v>504705</v>
       </c>
       <c r="C32" s="4">
-        <v>12116</v>
+        <v>12118</v>
       </c>
       <c r="D32" s="4">
-        <v>179220</v>
+        <v>180137</v>
       </c>
       <c r="E32" s="4">
-        <v>695502</v>
+        <v>696960</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10701</v>
+        <v>10740</v>
       </c>
       <c r="C33" s="4">
         <v>573</v>
       </c>
       <c r="D33" s="4">
-        <v>4528</v>
+        <v>4533</v>
       </c>
       <c r="E33" s="4">
-        <v>15802</v>
+        <v>15846</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3542</v>
+        <v>3550</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="E34" s="4">
-        <v>6518</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>21783</v>
+        <v>21811</v>
       </c>
       <c r="C35" s="4">
         <v>3400</v>
       </c>
       <c r="D35" s="4">
-        <v>16180</v>
+        <v>16283</v>
       </c>
       <c r="E35" s="4">
-        <v>41363</v>
+        <v>41494</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9450</v>
+        <v>9462</v>
       </c>
       <c r="C36" s="4">
         <v>453</v>
       </c>
       <c r="D36" s="4">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="E36" s="4">
-        <v>14254</v>
+        <v>14268</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16049</v>
+        <v>16060</v>
       </c>
       <c r="C37" s="4">
         <v>927</v>
       </c>
       <c r="D37" s="4">
-        <v>4228</v>
+        <v>4241</v>
       </c>
       <c r="E37" s="4">
-        <v>21204</v>
+        <v>21228</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>40909</v>
+        <v>40955</v>
       </c>
       <c r="C38" s="4">
         <v>1346</v>
       </c>
       <c r="D38" s="4">
-        <v>36402</v>
+        <v>36589</v>
       </c>
       <c r="E38" s="4">
-        <v>78657</v>
+        <v>78890</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8392</v>
+        <v>8418</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6899</v>
+        <v>6902</v>
       </c>
       <c r="E39" s="4">
-        <v>15770</v>
+        <v>15799</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7376</v>
+        <v>7380</v>
       </c>
       <c r="C40" s="4">
         <v>739</v>
       </c>
       <c r="D40" s="4">
-        <v>6811</v>
+        <v>6845</v>
       </c>
       <c r="E40" s="4">
-        <v>14926</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E41" s="4">
-        <v>2581</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C42" s="4">
         <v>74</v>
       </c>
       <c r="D42" s="4">
-        <v>4014</v>
+        <v>4028</v>
       </c>
       <c r="E42" s="4">
-        <v>7193</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="C43" s="4">
         <v>183</v>
       </c>
       <c r="D43" s="4">
-        <v>5801</v>
+        <v>5812</v>
       </c>
       <c r="E43" s="4">
-        <v>10896</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1835029</v>
+        <v>1837353</v>
       </c>
       <c r="C44" s="4">
-        <v>117962</v>
+        <v>117989</v>
       </c>
       <c r="D44" s="4">
-        <v>395188</v>
+        <v>396596</v>
       </c>
       <c r="E44" s="4">
-        <v>2348179</v>
+        <v>2351938</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
       </c>
       <c r="D45" s="4">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E45" s="4">
-        <v>6251</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21510</v>
+        <v>21528</v>
       </c>
       <c r="C46" s="4">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D46" s="4">
-        <v>12407</v>
+        <v>12501</v>
       </c>
       <c r="E46" s="4">
-        <v>35141</v>
+        <v>35254</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>218068</v>
+        <v>218437</v>
       </c>
       <c r="C47" s="4">
-        <v>13651</v>
+        <v>13655</v>
       </c>
       <c r="D47" s="4">
-        <v>64088</v>
+        <v>64666</v>
       </c>
       <c r="E47" s="4">
-        <v>295807</v>
+        <v>296758</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12853</v>
+        <v>12881</v>
       </c>
       <c r="C48" s="4">
         <v>390</v>
       </c>
       <c r="D48" s="4">
-        <v>7917</v>
+        <v>7931</v>
       </c>
       <c r="E48" s="4">
-        <v>21160</v>
+        <v>21202</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1879,10 +1879,10 @@
         <v>39</v>
       </c>
       <c r="D49" s="4">
-        <v>5519</v>
+        <v>5523</v>
       </c>
       <c r="E49" s="4">
-        <v>8188</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35481</v>
+        <v>35515</v>
       </c>
       <c r="C50" s="4">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="D50" s="4">
-        <v>15394</v>
+        <v>15528</v>
       </c>
       <c r="E50" s="4">
-        <v>53358</v>
+        <v>53528</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>148814</v>
+        <v>148883</v>
       </c>
       <c r="C51" s="4">
         <v>2501</v>
       </c>
       <c r="D51" s="4">
-        <v>35652</v>
+        <v>35759</v>
       </c>
       <c r="E51" s="4">
-        <v>186967</v>
+        <v>187143</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="C52" s="4">
         <v>78</v>
@@ -1933,7 +1933,7 @@
         <v>1103</v>
       </c>
       <c r="E52" s="4">
-        <v>2682</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="C53" s="4">
         <v>98</v>
       </c>
       <c r="D53" s="4">
-        <v>5054</v>
+        <v>5064</v>
       </c>
       <c r="E53" s="4">
-        <v>10248</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1958,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5957</v>
+        <v>5979</v>
       </c>
       <c r="E54" s="4">
-        <v>7253</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4181</v>
+        <v>4185</v>
       </c>
       <c r="C55" s="4">
         <v>78</v>
       </c>
       <c r="D55" s="4">
-        <v>4387</v>
+        <v>4394</v>
       </c>
       <c r="E55" s="4">
-        <v>8646</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E56" s="4">
-        <v>3621</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="C57" s="4">
         <v>609</v>
       </c>
       <c r="D57" s="4">
-        <v>4302</v>
+        <v>4307</v>
       </c>
       <c r="E57" s="4">
-        <v>9294</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4377047</v>
+        <v>4382097</v>
       </c>
       <c r="C58" s="4">
-        <v>174568</v>
+        <v>174614</v>
       </c>
       <c r="D58" s="4">
-        <v>760133</v>
+        <v>762714</v>
       </c>
       <c r="E58" s="4">
-        <v>5311748</v>
+        <v>5319425</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12294</v>
+        <v>12298</v>
       </c>
       <c r="C59" s="4">
         <v>639</v>
       </c>
       <c r="D59" s="4">
-        <v>7144</v>
+        <v>7154</v>
       </c>
       <c r="E59" s="4">
-        <v>20077</v>
+        <v>20091</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17779</v>
+        <v>17790</v>
       </c>
       <c r="C60" s="4">
         <v>664</v>
       </c>
       <c r="D60" s="4">
-        <v>8958</v>
+        <v>8972</v>
       </c>
       <c r="E60" s="4">
-        <v>27401</v>
+        <v>27426</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9246</v>
+        <v>9257</v>
       </c>
       <c r="C61" s="4">
         <v>1304</v>
       </c>
       <c r="D61" s="4">
-        <v>8291</v>
+        <v>8305</v>
       </c>
       <c r="E61" s="4">
-        <v>18841</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3450</v>
+        <v>3458</v>
       </c>
       <c r="C62" s="4">
         <v>263</v>
       </c>
       <c r="D62" s="4">
-        <v>3855</v>
+        <v>3862</v>
       </c>
       <c r="E62" s="4">
-        <v>7568</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1075476</v>
+        <v>1076620</v>
       </c>
       <c r="C63" s="4">
-        <v>84647</v>
+        <v>84663</v>
       </c>
       <c r="D63" s="4">
-        <v>314956</v>
+        <v>316125</v>
       </c>
       <c r="E63" s="4">
-        <v>1475079</v>
+        <v>1477408</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,7 +2128,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -2137,7 +2137,7 @@
         <v>1264</v>
       </c>
       <c r="E64" s="4">
-        <v>2239</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>35737</v>
+        <v>35788</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>46028</v>
+        <v>46200</v>
       </c>
       <c r="E65" s="4">
-        <v>81902</v>
+        <v>82125</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
       </c>
       <c r="D66" s="4">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="E66" s="4">
-        <v>5357</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>26981</v>
+        <v>26996</v>
       </c>
       <c r="C67" s="4">
-        <v>3517</v>
+        <v>3523</v>
       </c>
       <c r="D67" s="4">
-        <v>13669</v>
+        <v>13791</v>
       </c>
       <c r="E67" s="4">
-        <v>44167</v>
+        <v>44310</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8414</v>
+        <v>8425</v>
       </c>
       <c r="C68" s="4">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D68" s="4">
-        <v>10230</v>
+        <v>10241</v>
       </c>
       <c r="E68" s="4">
-        <v>19205</v>
+        <v>19230</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>107222</v>
+        <v>107325</v>
       </c>
       <c r="C69" s="4">
-        <v>6636</v>
+        <v>6637</v>
       </c>
       <c r="D69" s="4">
-        <v>81572</v>
+        <v>81763</v>
       </c>
       <c r="E69" s="4">
-        <v>195430</v>
+        <v>195725</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,16 +2230,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="C70" s="4">
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E70" s="4">
-        <v>2671</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1477226</v>
+        <v>1479272</v>
       </c>
       <c r="C71" s="4">
-        <v>23943</v>
+        <v>23945</v>
       </c>
       <c r="D71" s="4">
-        <v>676836</v>
+        <v>678899</v>
       </c>
       <c r="E71" s="4">
-        <v>2178005</v>
+        <v>2182116</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>287562</v>
+        <v>288021</v>
       </c>
       <c r="C72" s="4">
-        <v>10045</v>
+        <v>10056</v>
       </c>
       <c r="D72" s="4">
-        <v>67194</v>
+        <v>67384</v>
       </c>
       <c r="E72" s="4">
-        <v>364801</v>
+        <v>365461</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37260</v>
+        <v>37332</v>
       </c>
       <c r="C73" s="4">
         <v>2185</v>
       </c>
       <c r="D73" s="4">
-        <v>15966</v>
+        <v>15995</v>
       </c>
       <c r="E73" s="4">
-        <v>55411</v>
+        <v>55512</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19905</v>
+        <v>19915</v>
       </c>
       <c r="C74" s="4">
         <v>496</v>
       </c>
       <c r="D74" s="4">
-        <v>11737</v>
+        <v>11772</v>
       </c>
       <c r="E74" s="4">
-        <v>32138</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48189</v>
+        <v>48279</v>
       </c>
       <c r="C75" s="4">
         <v>1201</v>
       </c>
       <c r="D75" s="4">
-        <v>13803</v>
+        <v>13827</v>
       </c>
       <c r="E75" s="4">
-        <v>63193</v>
+        <v>63307</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>25623</v>
+        <v>25647</v>
       </c>
       <c r="C76" s="4">
         <v>1079</v>
       </c>
       <c r="D76" s="4">
-        <v>9011</v>
+        <v>9046</v>
       </c>
       <c r="E76" s="4">
-        <v>35713</v>
+        <v>35772</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C77" s="4">
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E77" s="4">
-        <v>2819</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5531</v>
+        <v>5544</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
@@ -2375,7 +2375,7 @@
         <v>1021</v>
       </c>
       <c r="E78" s="4">
-        <v>6728</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,16 +2383,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2339</v>
+        <v>2350</v>
       </c>
       <c r="E79" s="4">
-        <v>3278</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1373164</v>
+        <v>1374920</v>
       </c>
       <c r="C80" s="4">
-        <v>52716</v>
+        <v>52733</v>
       </c>
       <c r="D80" s="4">
-        <v>201720</v>
+        <v>203031</v>
       </c>
       <c r="E80" s="4">
-        <v>1627600</v>
+        <v>1630684</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8051</v>
+        <v>8064</v>
       </c>
       <c r="C81" s="4">
         <v>626</v>
       </c>
       <c r="D81" s="4">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="E81" s="4">
-        <v>10862</v>
+        <v>10877</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26319</v>
+        <v>26346</v>
       </c>
       <c r="C82" s="4">
         <v>873</v>
       </c>
       <c r="D82" s="4">
-        <v>23419</v>
+        <v>23488</v>
       </c>
       <c r="E82" s="4">
-        <v>50611</v>
+        <v>50707</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>37548</v>
+        <v>37594</v>
       </c>
       <c r="C83" s="4">
         <v>583</v>
       </c>
       <c r="D83" s="4">
-        <v>10273</v>
+        <v>10280</v>
       </c>
       <c r="E83" s="4">
-        <v>48404</v>
+        <v>48457</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5720</v>
+        <v>5727</v>
       </c>
       <c r="C84" s="4">
         <v>311</v>
       </c>
       <c r="D84" s="4">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="E84" s="4">
-        <v>9069</v>
+        <v>9078</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>708822</v>
+        <v>709792</v>
       </c>
       <c r="C85" s="4">
-        <v>28170</v>
+        <v>28314</v>
       </c>
       <c r="D85" s="4">
-        <v>121937</v>
+        <v>122458</v>
       </c>
       <c r="E85" s="4">
-        <v>858929</v>
+        <v>860564</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4666</v>
+        <v>4672</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="E86" s="4">
-        <v>6913</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>23905</v>
+        <v>23935</v>
       </c>
       <c r="C87" s="4">
         <v>1121</v>
       </c>
       <c r="D87" s="4">
-        <v>13745</v>
+        <v>13828</v>
       </c>
       <c r="E87" s="4">
-        <v>38771</v>
+        <v>38884</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2542,10 +2542,10 @@
         <v>54</v>
       </c>
       <c r="D88" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E88" s="4">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5397</v>
+        <v>5405</v>
       </c>
       <c r="C89" s="4">
         <v>392</v>
       </c>
       <c r="D89" s="4">
-        <v>4127</v>
+        <v>4132</v>
       </c>
       <c r="E89" s="4">
-        <v>9916</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18724</v>
+        <v>18740</v>
       </c>
       <c r="C90" s="4">
         <v>542</v>
       </c>
       <c r="D90" s="4">
-        <v>15155</v>
+        <v>15333</v>
       </c>
       <c r="E90" s="4">
-        <v>34421</v>
+        <v>34615</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14676</v>
+        <v>14695</v>
       </c>
       <c r="C91" s="4">
         <v>1383</v>
       </c>
       <c r="D91" s="4">
-        <v>13792</v>
+        <v>13865</v>
       </c>
       <c r="E91" s="4">
-        <v>29851</v>
+        <v>29943</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>192467</v>
+        <v>192573</v>
       </c>
       <c r="C92" s="4">
-        <v>6577</v>
+        <v>6587</v>
       </c>
       <c r="D92" s="4">
-        <v>61244</v>
+        <v>61354</v>
       </c>
       <c r="E92" s="4">
-        <v>260288</v>
+        <v>260514</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>90960</v>
+        <v>91034</v>
       </c>
       <c r="C93" s="4">
-        <v>12433</v>
+        <v>12434</v>
       </c>
       <c r="D93" s="4">
-        <v>51949</v>
+        <v>52077</v>
       </c>
       <c r="E93" s="4">
-        <v>155342</v>
+        <v>155545</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62068</v>
+        <v>62151</v>
       </c>
       <c r="C94" s="4">
         <v>1545</v>
       </c>
       <c r="D94" s="4">
-        <v>16420</v>
+        <v>16463</v>
       </c>
       <c r="E94" s="4">
-        <v>80033</v>
+        <v>80159</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>170378</v>
+        <v>170709</v>
       </c>
       <c r="C95" s="4">
-        <v>6599</v>
+        <v>6603</v>
       </c>
       <c r="D95" s="4">
-        <v>57227</v>
+        <v>57383</v>
       </c>
       <c r="E95" s="4">
-        <v>234204</v>
+        <v>234695</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35053</v>
+        <v>35081</v>
       </c>
       <c r="C96" s="4">
         <v>556</v>
       </c>
       <c r="D96" s="4">
-        <v>9916</v>
+        <v>9939</v>
       </c>
       <c r="E96" s="4">
-        <v>45525</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,16 +2689,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2761</v>
+        <v>2779</v>
       </c>
       <c r="C97" s="4">
         <v>81</v>
       </c>
       <c r="D97" s="4">
-        <v>3675</v>
+        <v>3715</v>
       </c>
       <c r="E97" s="4">
-        <v>6517</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12378</v>
+        <v>12400</v>
       </c>
       <c r="C98" s="4">
         <v>476</v>
       </c>
       <c r="D98" s="4">
-        <v>5543</v>
+        <v>5571</v>
       </c>
       <c r="E98" s="4">
-        <v>18397</v>
+        <v>18447</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
       </c>
       <c r="D99" s="4">
-        <v>4955</v>
+        <v>4981</v>
       </c>
       <c r="E99" s="4">
-        <v>8192</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="C100" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D100" s="4">
-        <v>4034</v>
+        <v>4078</v>
       </c>
       <c r="E100" s="4">
-        <v>7160</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>48296</v>
+        <v>48357</v>
       </c>
       <c r="C101" s="4">
-        <v>4657</v>
+        <v>4659</v>
       </c>
       <c r="D101" s="4">
-        <v>31590</v>
+        <v>31663</v>
       </c>
       <c r="E101" s="4">
-        <v>84543</v>
+        <v>84679</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8509012</v>
+        <v>8521730</v>
       </c>
       <c r="C102" s="4">
-        <v>285215</v>
+        <v>285407</v>
       </c>
       <c r="D102" s="4">
-        <v>1253799</v>
+        <v>1260146</v>
       </c>
       <c r="E102" s="4">
-        <v>10048026</v>
+        <v>10067283</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>91347</v>
+        <v>91423</v>
       </c>
       <c r="C103" s="4">
-        <v>9465</v>
+        <v>9467</v>
       </c>
       <c r="D103" s="4">
-        <v>37898</v>
+        <v>38108</v>
       </c>
       <c r="E103" s="4">
-        <v>138710</v>
+        <v>138998</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2831,10 +2831,10 @@
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4349</v>
+        <v>4358</v>
       </c>
       <c r="E105" s="4">
-        <v>6465</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>516008</v>
+        <v>516683</v>
       </c>
       <c r="C106" s="4">
-        <v>18093</v>
+        <v>18098</v>
       </c>
       <c r="D106" s="4">
-        <v>70862</v>
+        <v>71080</v>
       </c>
       <c r="E106" s="4">
-        <v>604963</v>
+        <v>605861</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2865,10 +2865,10 @@
         <v>549</v>
       </c>
       <c r="D107" s="4">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E107" s="4">
-        <v>2607</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>56070</v>
+        <v>56158</v>
       </c>
       <c r="C108" s="4">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="D108" s="4">
-        <v>32405</v>
+        <v>32684</v>
       </c>
       <c r="E108" s="4">
-        <v>91861</v>
+        <v>92230</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>977757</v>
+        <v>979431</v>
       </c>
       <c r="C109" s="4">
-        <v>23357</v>
+        <v>23367</v>
       </c>
       <c r="D109" s="4">
-        <v>454786</v>
+        <v>456381</v>
       </c>
       <c r="E109" s="4">
-        <v>1455900</v>
+        <v>1459179</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45588</v>
+        <v>45617</v>
       </c>
       <c r="C110" s="4">
         <v>1341</v>
       </c>
       <c r="D110" s="4">
-        <v>22111</v>
+        <v>22176</v>
       </c>
       <c r="E110" s="4">
-        <v>69040</v>
+        <v>69134</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21276</v>
+        <v>21309</v>
       </c>
       <c r="C111" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D111" s="4">
-        <v>9217</v>
+        <v>9297</v>
       </c>
       <c r="E111" s="4">
-        <v>30776</v>
+        <v>30890</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>61872</v>
+        <v>61964</v>
       </c>
       <c r="C112" s="4">
         <v>3389</v>
       </c>
       <c r="D112" s="4">
-        <v>48910</v>
+        <v>49117</v>
       </c>
       <c r="E112" s="4">
-        <v>114171</v>
+        <v>114470</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>30634</v>
+        <v>30713</v>
       </c>
       <c r="C113" s="4">
         <v>2181</v>
       </c>
       <c r="D113" s="4">
-        <v>16866</v>
+        <v>16915</v>
       </c>
       <c r="E113" s="4">
-        <v>49681</v>
+        <v>49809</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22236</v>
+        <v>22271</v>
       </c>
       <c r="C114" s="4">
         <v>732</v>
       </c>
       <c r="D114" s="4">
-        <v>13459</v>
+        <v>13560</v>
       </c>
       <c r="E114" s="4">
-        <v>36427</v>
+        <v>36563</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24438</v>
+        <v>24457</v>
       </c>
       <c r="C115" s="4">
         <v>976</v>
       </c>
       <c r="D115" s="4">
-        <v>25791</v>
+        <v>25974</v>
       </c>
       <c r="E115" s="4">
-        <v>51205</v>
+        <v>51407</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3660</v>
+        <v>3664</v>
       </c>
       <c r="C116" s="4">
         <v>53</v>
       </c>
       <c r="D116" s="4">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E116" s="4">
-        <v>5602</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>147252</v>
+        <v>147465</v>
       </c>
       <c r="C117" s="4">
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="D117" s="4">
-        <v>54649</v>
+        <v>54823</v>
       </c>
       <c r="E117" s="4">
-        <v>207269</v>
+        <v>207657</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>14898</v>
+        <v>14923</v>
       </c>
       <c r="C118" s="4">
         <v>1902</v>
       </c>
       <c r="D118" s="4">
-        <v>11579</v>
+        <v>11588</v>
       </c>
       <c r="E118" s="4">
-        <v>28379</v>
+        <v>28413</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3069,10 +3069,10 @@
         <v>27</v>
       </c>
       <c r="D119" s="4">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="E119" s="4">
-        <v>1659</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5659</v>
+        <v>5663</v>
       </c>
       <c r="C120" s="4">
         <v>303</v>
       </c>
       <c r="D120" s="4">
-        <v>2215</v>
+        <v>2220</v>
       </c>
       <c r="E120" s="4">
-        <v>8177</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12217</v>
+        <v>12242</v>
       </c>
       <c r="C121" s="4">
         <v>617</v>
       </c>
       <c r="D121" s="4">
-        <v>6530</v>
+        <v>6538</v>
       </c>
       <c r="E121" s="4">
-        <v>19364</v>
+        <v>19397</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31287</v>
+        <v>31314</v>
       </c>
       <c r="C122" s="4">
         <v>3180</v>
       </c>
       <c r="D122" s="4">
-        <v>19304</v>
+        <v>19530</v>
       </c>
       <c r="E122" s="4">
-        <v>53771</v>
+        <v>54024</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3137,10 +3137,10 @@
         <v>60</v>
       </c>
       <c r="D123" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E123" s="4">
-        <v>2509</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>259840</v>
+        <v>260122</v>
       </c>
       <c r="C124" s="4">
-        <v>16969</v>
+        <v>16972</v>
       </c>
       <c r="D124" s="4">
-        <v>119196</v>
+        <v>119711</v>
       </c>
       <c r="E124" s="4">
-        <v>396005</v>
+        <v>396805</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15251</v>
+        <v>15254</v>
       </c>
       <c r="C125" s="4">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D125" s="4">
-        <v>17871</v>
+        <v>17957</v>
       </c>
       <c r="E125" s="4">
-        <v>33900</v>
+        <v>33991</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>91942</v>
+        <v>91991</v>
       </c>
       <c r="C126" s="4">
-        <v>11418</v>
+        <v>11424</v>
       </c>
       <c r="D126" s="4">
-        <v>40648</v>
+        <v>40879</v>
       </c>
       <c r="E126" s="4">
-        <v>144008</v>
+        <v>144294</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>218966</v>
+        <v>219303</v>
       </c>
       <c r="C127" s="4">
-        <v>9598</v>
+        <v>9604</v>
       </c>
       <c r="D127" s="4">
-        <v>58543</v>
+        <v>58732</v>
       </c>
       <c r="E127" s="4">
-        <v>287107</v>
+        <v>287639</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12315</v>
+        <v>12456</v>
       </c>
       <c r="C128" s="4">
         <v>250</v>
       </c>
       <c r="D128" s="4">
-        <v>11176</v>
+        <v>11217</v>
       </c>
       <c r="E128" s="4">
-        <v>23741</v>
+        <v>23923</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23643</v>
+        <v>23653</v>
       </c>
       <c r="C129" s="4">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D129" s="4">
-        <v>15769</v>
+        <v>15892</v>
       </c>
       <c r="E129" s="4">
-        <v>40010</v>
+        <v>40145</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>197711</v>
+        <v>197977</v>
       </c>
       <c r="C130" s="4">
-        <v>7577</v>
+        <v>7580</v>
       </c>
       <c r="D130" s="4">
-        <v>62174</v>
+        <v>62364</v>
       </c>
       <c r="E130" s="4">
-        <v>267462</v>
+        <v>267921</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>48404</v>
+        <v>48486</v>
       </c>
       <c r="C131" s="4">
         <v>3128</v>
       </c>
       <c r="D131" s="4">
-        <v>25586</v>
+        <v>25707</v>
       </c>
       <c r="E131" s="4">
-        <v>77118</v>
+        <v>77321</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>49901</v>
+        <v>49994</v>
       </c>
       <c r="C134" s="4">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D134" s="4">
-        <v>55434</v>
+        <v>55993</v>
       </c>
       <c r="E134" s="4">
-        <v>107583</v>
+        <v>108236</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C135" s="4">
         <v>76</v>
       </c>
       <c r="D135" s="4">
-        <v>1768</v>
+        <v>1779</v>
       </c>
       <c r="E135" s="4">
-        <v>4347</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3680</v>
+        <v>3685</v>
       </c>
       <c r="C137" s="4">
         <v>64</v>
       </c>
       <c r="D137" s="4">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E137" s="4">
-        <v>4632</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45182</v>
+        <v>45205</v>
       </c>
       <c r="C138" s="4">
         <v>5559</v>
       </c>
       <c r="D138" s="4">
-        <v>20448</v>
+        <v>20535</v>
       </c>
       <c r="E138" s="4">
-        <v>71189</v>
+        <v>71299</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C139" s="4">
         <v>64</v>
       </c>
       <c r="D139" s="4">
-        <v>7425</v>
+        <v>7433</v>
       </c>
       <c r="E139" s="4">
-        <v>8793</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14185</v>
+        <v>14191</v>
       </c>
       <c r="C140" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D140" s="4">
-        <v>7441</v>
+        <v>7447</v>
       </c>
       <c r="E140" s="4">
-        <v>21956</v>
+        <v>21969</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33640</v>
+        <v>33671</v>
       </c>
       <c r="C141" s="4">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D141" s="4">
-        <v>25009</v>
+        <v>25118</v>
       </c>
       <c r="E141" s="4">
-        <v>61709</v>
+        <v>61850</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10195</v>
+        <v>10201</v>
       </c>
       <c r="C142" s="4">
         <v>190</v>
       </c>
       <c r="D142" s="4">
-        <v>12613</v>
+        <v>12640</v>
       </c>
       <c r="E142" s="4">
-        <v>22998</v>
+        <v>23031</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>32732</v>
+        <v>32751</v>
       </c>
       <c r="C143" s="4">
         <v>802</v>
       </c>
       <c r="D143" s="4">
-        <v>9120</v>
+        <v>9133</v>
       </c>
       <c r="E143" s="4">
-        <v>42654</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20654</v>
+        <v>20678</v>
       </c>
       <c r="C144" s="4">
         <v>1414</v>
       </c>
       <c r="D144" s="4">
-        <v>18169</v>
+        <v>18274</v>
       </c>
       <c r="E144" s="4">
-        <v>40237</v>
+        <v>40366</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14327</v>
+        <v>14333</v>
       </c>
       <c r="C145" s="4">
         <v>519</v>
       </c>
       <c r="D145" s="4">
-        <v>8187</v>
+        <v>8209</v>
       </c>
       <c r="E145" s="4">
-        <v>23033</v>
+        <v>23061</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>18670</v>
+        <v>18691</v>
       </c>
       <c r="C146" s="4">
         <v>881</v>
       </c>
       <c r="D146" s="4">
-        <v>8454</v>
+        <v>8497</v>
       </c>
       <c r="E146" s="4">
-        <v>28005</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>101804</v>
+        <v>101924</v>
       </c>
       <c r="C147" s="4">
         <v>4833</v>
       </c>
       <c r="D147" s="4">
-        <v>30646</v>
+        <v>30901</v>
       </c>
       <c r="E147" s="4">
-        <v>137283</v>
+        <v>137658</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42504</v>
+        <v>42548</v>
       </c>
       <c r="C148" s="4">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D148" s="4">
-        <v>42395</v>
+        <v>42560</v>
       </c>
       <c r="E148" s="4">
-        <v>85707</v>
+        <v>85917</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,16 +3573,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
       </c>
       <c r="D149" s="4">
-        <v>1171</v>
+        <v>1202</v>
       </c>
       <c r="E149" s="4">
-        <v>2148</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10228</v>
+        <v>10243</v>
       </c>
       <c r="C150" s="4">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="D150" s="4">
-        <v>8735</v>
+        <v>8819</v>
       </c>
       <c r="E150" s="4">
-        <v>20335</v>
+        <v>20438</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20299</v>
+        <v>20310</v>
       </c>
       <c r="C151" s="4">
         <v>684</v>
       </c>
       <c r="D151" s="4">
-        <v>6265</v>
+        <v>6316</v>
       </c>
       <c r="E151" s="4">
-        <v>27248</v>
+        <v>27310</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>11574</v>
+        <v>11938</v>
       </c>
       <c r="E152" s="4">
-        <v>11988</v>
+        <v>12360</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>382983</v>
+        <v>383317</v>
       </c>
       <c r="C153" s="4">
-        <v>12791</v>
+        <v>12792</v>
       </c>
       <c r="D153" s="4">
-        <v>208962</v>
+        <v>209647</v>
       </c>
       <c r="E153" s="4">
-        <v>604736</v>
+        <v>605756</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4838</v>
+        <v>4841</v>
       </c>
       <c r="C154" s="4">
         <v>190</v>
       </c>
       <c r="D154" s="4">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="E154" s="4">
-        <v>9452</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20866</v>
+        <v>20882</v>
       </c>
       <c r="C155" s="4">
         <v>422</v>
       </c>
       <c r="D155" s="4">
-        <v>7356</v>
+        <v>7360</v>
       </c>
       <c r="E155" s="4">
-        <v>28644</v>
+        <v>28664</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4536</v>
+        <v>4541</v>
       </c>
       <c r="C156" s="4">
         <v>884</v>
       </c>
       <c r="D156" s="4">
-        <v>4309</v>
+        <v>4314</v>
       </c>
       <c r="E156" s="4">
-        <v>9729</v>
+        <v>9739</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="C157" s="4">
         <v>285</v>
       </c>
       <c r="D157" s="4">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="E157" s="4">
-        <v>3846</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="C158" s="4">
         <v>126</v>
       </c>
       <c r="D158" s="4">
-        <v>2353</v>
+        <v>2378</v>
       </c>
       <c r="E158" s="4">
-        <v>5193</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>53268</v>
+        <v>53317</v>
       </c>
       <c r="C159" s="4">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="D159" s="4">
-        <v>8598</v>
+        <v>8613</v>
       </c>
       <c r="E159" s="4">
-        <v>63893</v>
+        <v>63963</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>108675</v>
+        <v>108747</v>
       </c>
       <c r="C160" s="4">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D160" s="4">
-        <v>31496</v>
+        <v>31541</v>
       </c>
       <c r="E160" s="4">
-        <v>140708</v>
+        <v>140826</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C161" s="4">
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>4939</v>
+        <v>4954</v>
       </c>
       <c r="E161" s="4">
-        <v>9061</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>459202</v>
+        <v>459525</v>
       </c>
       <c r="C162" s="4">
         <v>13722</v>
       </c>
       <c r="D162" s="4">
-        <v>174423</v>
+        <v>174886</v>
       </c>
       <c r="E162" s="4">
-        <v>647347</v>
+        <v>648133</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>56630</v>
+        <v>56728</v>
       </c>
       <c r="C164" s="4">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D164" s="4">
-        <v>17739</v>
+        <v>17775</v>
       </c>
       <c r="E164" s="4">
-        <v>76160</v>
+        <v>76296</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3851,10 +3851,10 @@
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2885</v>
+        <v>2890</v>
       </c>
       <c r="E165" s="4">
-        <v>5474</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>90370</v>
+        <v>90458</v>
       </c>
       <c r="C166" s="4">
-        <v>12386</v>
+        <v>12392</v>
       </c>
       <c r="D166" s="4">
-        <v>96281</v>
+        <v>96472</v>
       </c>
       <c r="E166" s="4">
-        <v>199037</v>
+        <v>199322</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28077</v>
+        <v>28118</v>
       </c>
       <c r="C167" s="4">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D167" s="4">
-        <v>15912</v>
+        <v>15953</v>
       </c>
       <c r="E167" s="4">
-        <v>45400</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>9990</v>
+        <v>9998</v>
       </c>
       <c r="C168" s="4">
         <v>147</v>
       </c>
       <c r="D168" s="4">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="E168" s="4">
-        <v>13180</v>
+        <v>13192</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9140</v>
+        <v>9141</v>
       </c>
       <c r="C169" s="4">
         <v>88</v>
       </c>
       <c r="D169" s="4">
-        <v>8212</v>
+        <v>8257</v>
       </c>
       <c r="E169" s="4">
-        <v>17440</v>
+        <v>17486</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20802</v>
+        <v>20813</v>
       </c>
       <c r="C170" s="4">
         <v>1367</v>
       </c>
       <c r="D170" s="4">
-        <v>12038</v>
+        <v>12123</v>
       </c>
       <c r="E170" s="4">
-        <v>34207</v>
+        <v>34303</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>794955</v>
+        <v>795997</v>
       </c>
       <c r="C171" s="4">
-        <v>50095</v>
+        <v>50115</v>
       </c>
       <c r="D171" s="4">
-        <v>177063</v>
+        <v>177921</v>
       </c>
       <c r="E171" s="4">
-        <v>1022113</v>
+        <v>1024033</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12242</v>
+        <v>12294</v>
       </c>
       <c r="C172" s="4">
         <v>1263</v>
       </c>
       <c r="D172" s="4">
-        <v>8315</v>
+        <v>8336</v>
       </c>
       <c r="E172" s="4">
-        <v>21820</v>
+        <v>21893</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10518</v>
+        <v>10545</v>
       </c>
       <c r="C173" s="4">
         <v>832</v>
       </c>
       <c r="D173" s="4">
-        <v>9414</v>
+        <v>9420</v>
       </c>
       <c r="E173" s="4">
-        <v>20764</v>
+        <v>20797</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3998,16 +3998,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C174" s="4">
         <v>20</v>
       </c>
       <c r="D174" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E174" s="4">
-        <v>1398</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>71928</v>
+        <v>71991</v>
       </c>
       <c r="C175" s="4">
         <v>4599</v>
       </c>
       <c r="D175" s="4">
-        <v>24576</v>
+        <v>24637</v>
       </c>
       <c r="E175" s="4">
-        <v>101103</v>
+        <v>101227</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>44976</v>
+        <v>45042</v>
       </c>
       <c r="C176" s="4">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="D176" s="4">
-        <v>39924</v>
+        <v>40105</v>
       </c>
       <c r="E176" s="4">
-        <v>87037</v>
+        <v>87287</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7932</v>
+        <v>7941</v>
       </c>
       <c r="C177" s="4">
         <v>964</v>
       </c>
       <c r="D177" s="4">
-        <v>6444</v>
+        <v>6513</v>
       </c>
       <c r="E177" s="4">
-        <v>15340</v>
+        <v>15418</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10873</v>
+        <v>10904</v>
       </c>
       <c r="C178" s="4">
         <v>238</v>
       </c>
       <c r="D178" s="4">
-        <v>9555</v>
+        <v>9564</v>
       </c>
       <c r="E178" s="4">
-        <v>20666</v>
+        <v>20706</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>409927</v>
+        <v>410498</v>
       </c>
       <c r="C179" s="4">
-        <v>54054</v>
+        <v>54062</v>
       </c>
       <c r="D179" s="4">
-        <v>202835</v>
+        <v>203924</v>
       </c>
       <c r="E179" s="4">
-        <v>666816</v>
+        <v>668484</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1965</v>
+        <v>2004</v>
       </c>
       <c r="C180" s="4">
         <v>469</v>
       </c>
       <c r="D180" s="4">
-        <v>1707</v>
+        <v>1729</v>
       </c>
       <c r="E180" s="4">
-        <v>4141</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1272</v>
+        <v>1282</v>
       </c>
       <c r="C181" s="4">
         <v>431</v>
       </c>
       <c r="D181" s="4">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="E181" s="4">
-        <v>3095</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>61199</v>
+        <v>61297</v>
       </c>
       <c r="C182" s="4">
-        <v>7372</v>
+        <v>7374</v>
       </c>
       <c r="D182" s="4">
-        <v>37213</v>
+        <v>37427</v>
       </c>
       <c r="E182" s="4">
-        <v>105784</v>
+        <v>106098</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>28812</v>
+        <v>28845</v>
       </c>
       <c r="C183" s="4">
         <v>1154</v>
       </c>
       <c r="D183" s="4">
-        <v>14380</v>
+        <v>14437</v>
       </c>
       <c r="E183" s="4">
-        <v>44346</v>
+        <v>44436</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16381</v>
+        <v>16435</v>
       </c>
       <c r="C184" s="4">
         <v>1371</v>
       </c>
       <c r="D184" s="4">
-        <v>11943</v>
+        <v>11966</v>
       </c>
       <c r="E184" s="4">
-        <v>29695</v>
+        <v>29772</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>153366</v>
+        <v>153570</v>
       </c>
       <c r="C185" s="4">
-        <v>8263</v>
+        <v>8270</v>
       </c>
       <c r="D185" s="4">
-        <v>46138</v>
+        <v>46332</v>
       </c>
       <c r="E185" s="4">
-        <v>207767</v>
+        <v>208172</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
       </c>
       <c r="D186" s="4">
-        <v>4548</v>
+        <v>4580</v>
       </c>
       <c r="E186" s="4">
-        <v>8650</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15377</v>
+        <v>15383</v>
       </c>
       <c r="C187" s="4">
         <v>179</v>
       </c>
       <c r="D187" s="4">
-        <v>6191</v>
+        <v>6205</v>
       </c>
       <c r="E187" s="4">
-        <v>21747</v>
+        <v>21767</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>62688</v>
+        <v>62744</v>
       </c>
       <c r="C188" s="4">
         <v>3023</v>
       </c>
       <c r="D188" s="4">
-        <v>25533</v>
+        <v>25603</v>
       </c>
       <c r="E188" s="4">
-        <v>91244</v>
+        <v>91370</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>126617</v>
+        <v>126860</v>
       </c>
       <c r="C189" s="4">
-        <v>10356</v>
+        <v>10357</v>
       </c>
       <c r="D189" s="4">
-        <v>55534</v>
+        <v>55791</v>
       </c>
       <c r="E189" s="4">
-        <v>192507</v>
+        <v>193008</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8164</v>
+        <v>8170</v>
       </c>
       <c r="C190" s="4">
         <v>64</v>
       </c>
       <c r="D190" s="4">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="E190" s="4">
-        <v>10670</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6476</v>
+        <v>6500</v>
       </c>
       <c r="C191" s="4">
         <v>504</v>
       </c>
       <c r="D191" s="4">
-        <v>4059</v>
+        <v>4073</v>
       </c>
       <c r="E191" s="4">
-        <v>11039</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>95836</v>
+        <v>96060</v>
       </c>
       <c r="C192" s="4">
         <v>21166</v>
       </c>
       <c r="D192" s="4">
-        <v>48929</v>
+        <v>49063</v>
       </c>
       <c r="E192" s="4">
-        <v>165931</v>
+        <v>166289</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4327,10 +4327,10 @@
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="E193" s="4">
-        <v>2870</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3024</v>
+        <v>3029</v>
       </c>
       <c r="C194" s="4">
         <v>132</v>
       </c>
       <c r="D194" s="4">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="E194" s="4">
-        <v>5072</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9072</v>
+        <v>9080</v>
       </c>
       <c r="C195" s="4">
         <v>780</v>
       </c>
       <c r="D195" s="4">
-        <v>10632</v>
+        <v>10685</v>
       </c>
       <c r="E195" s="4">
-        <v>20484</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14386</v>
+        <v>14428</v>
       </c>
       <c r="C196" s="4">
         <v>558</v>
       </c>
       <c r="D196" s="4">
-        <v>100229</v>
+        <v>100726</v>
       </c>
       <c r="E196" s="4">
-        <v>115173</v>
+        <v>115712</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6511</v>
+        <v>6515</v>
       </c>
       <c r="C197" s="4">
         <v>544</v>
       </c>
       <c r="D197" s="4">
-        <v>9994</v>
+        <v>10070</v>
       </c>
       <c r="E197" s="4">
-        <v>17049</v>
+        <v>17129</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21265</v>
+        <v>21286</v>
       </c>
       <c r="C199" s="4">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D199" s="4">
-        <v>15284</v>
+        <v>15291</v>
       </c>
       <c r="E199" s="4">
-        <v>37133</v>
+        <v>37163</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>125872</v>
+        <v>125986</v>
       </c>
       <c r="C200" s="4">
-        <v>8457</v>
+        <v>8463</v>
       </c>
       <c r="D200" s="4">
-        <v>25264</v>
+        <v>25347</v>
       </c>
       <c r="E200" s="4">
-        <v>159593</v>
+        <v>159796</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8578</v>
+        <v>8579</v>
       </c>
       <c r="C201" s="4">
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>9671</v>
+        <v>9727</v>
       </c>
       <c r="E201" s="4">
-        <v>18504</v>
+        <v>18561</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>38670</v>
+        <v>38704</v>
       </c>
       <c r="C202" s="4">
         <v>2555</v>
       </c>
       <c r="D202" s="4">
-        <v>12152</v>
+        <v>12230</v>
       </c>
       <c r="E202" s="4">
-        <v>53377</v>
+        <v>53489</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12091</v>
+        <v>12109</v>
       </c>
       <c r="C203" s="4">
         <v>771</v>
       </c>
       <c r="D203" s="4">
-        <v>5443</v>
+        <v>5455</v>
       </c>
       <c r="E203" s="4">
-        <v>18305</v>
+        <v>18335</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11485</v>
+        <v>11500</v>
       </c>
       <c r="C204" s="4">
         <v>299</v>
       </c>
       <c r="D204" s="4">
-        <v>10461</v>
+        <v>10637</v>
       </c>
       <c r="E204" s="4">
-        <v>22245</v>
+        <v>22436</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35265</v>
+        <v>35323</v>
       </c>
       <c r="C205" s="4">
         <v>2540</v>
       </c>
       <c r="D205" s="4">
-        <v>11883</v>
+        <v>11911</v>
       </c>
       <c r="E205" s="4">
-        <v>49688</v>
+        <v>49774</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>63318</v>
+        <v>63420</v>
       </c>
       <c r="C206" s="4">
-        <v>10181</v>
+        <v>10182</v>
       </c>
       <c r="D206" s="4">
-        <v>51350</v>
+        <v>51818</v>
       </c>
       <c r="E206" s="4">
-        <v>124849</v>
+        <v>125420</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="C207" s="4">
         <v>141</v>
       </c>
       <c r="D207" s="4">
-        <v>4766</v>
+        <v>4776</v>
       </c>
       <c r="E207" s="4">
-        <v>10771</v>
+        <v>10784</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E208" s="4">
-        <v>2450</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>31890</v>
+        <v>31923</v>
       </c>
       <c r="C209" s="4">
         <v>359</v>
       </c>
       <c r="D209" s="4">
-        <v>5872</v>
+        <v>6017</v>
       </c>
       <c r="E209" s="4">
-        <v>38121</v>
+        <v>38299</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4616,10 +4616,10 @@
         <v>98</v>
       </c>
       <c r="D210" s="4">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="E210" s="4">
-        <v>2783</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24237</v>
+        <v>24284</v>
       </c>
       <c r="C211" s="4">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D211" s="4">
-        <v>12222</v>
+        <v>12321</v>
       </c>
       <c r="E211" s="4">
-        <v>37964</v>
+        <v>38111</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C212" s="4">
         <v>186</v>
       </c>
       <c r="D212" s="4">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E212" s="4">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>327789</v>
+        <v>328078</v>
       </c>
       <c r="C213" s="4">
-        <v>15798</v>
+        <v>15802</v>
       </c>
       <c r="D213" s="4">
-        <v>117677</v>
+        <v>118875</v>
       </c>
       <c r="E213" s="4">
-        <v>461264</v>
+        <v>462755</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10154</v>
+        <v>10173</v>
       </c>
       <c r="C214" s="4">
         <v>460</v>
       </c>
       <c r="D214" s="4">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="E214" s="4">
-        <v>19642</v>
+        <v>19676</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>92881</v>
+        <v>93359</v>
       </c>
       <c r="C215" s="4">
         <v>935</v>
       </c>
       <c r="D215" s="4">
-        <v>40509</v>
+        <v>40544</v>
       </c>
       <c r="E215" s="4">
-        <v>134325</v>
+        <v>134838</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6635</v>
+        <v>6637</v>
       </c>
       <c r="C216" s="4">
         <v>177</v>
       </c>
       <c r="D216" s="4">
-        <v>7998</v>
+        <v>8115</v>
       </c>
       <c r="E216" s="4">
-        <v>14810</v>
+        <v>14929</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4735,10 +4735,10 @@
         <v>26</v>
       </c>
       <c r="D217" s="4">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E217" s="4">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>2177</v>
+        <v>2197</v>
       </c>
       <c r="E218" s="4">
-        <v>2402</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C219" s="4">
         <v>49</v>
       </c>
       <c r="D219" s="4">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="E219" s="4">
-        <v>3367</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8884</v>
+        <v>8887</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="E220" s="4">
-        <v>11984</v>
+        <v>11991</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3167840</v>
+        <v>3171749</v>
       </c>
       <c r="C221" s="4">
-        <v>121202</v>
+        <v>121229</v>
       </c>
       <c r="D221" s="4">
-        <v>705371</v>
+        <v>708873</v>
       </c>
       <c r="E221" s="4">
-        <v>3994413</v>
+        <v>4001851</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>125574</v>
+        <v>125648</v>
       </c>
       <c r="C222" s="4">
         <v>4804</v>
       </c>
       <c r="D222" s="4">
-        <v>170929</v>
+        <v>171571</v>
       </c>
       <c r="E222" s="4">
-        <v>301307</v>
+        <v>302023</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4837,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E223" s="4">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6255</v>
+        <v>6261</v>
       </c>
       <c r="C224" s="4">
         <v>144</v>
       </c>
       <c r="D224" s="4">
-        <v>4814</v>
+        <v>4822</v>
       </c>
       <c r="E224" s="4">
-        <v>11213</v>
+        <v>11227</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4871,10 +4871,10 @@
         <v>57</v>
       </c>
       <c r="D225" s="4">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E225" s="4">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37478</v>
+        <v>37561</v>
       </c>
       <c r="C226" s="4">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D226" s="4">
-        <v>11723</v>
+        <v>11726</v>
       </c>
       <c r="E226" s="4">
-        <v>50727</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>108030</v>
+        <v>108163</v>
       </c>
       <c r="C227" s="4">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="D227" s="4">
-        <v>160296</v>
+        <v>160972</v>
       </c>
       <c r="E227" s="4">
-        <v>271704</v>
+        <v>272515</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2141429</v>
+        <v>2143693</v>
       </c>
       <c r="C228" s="4">
-        <v>91594</v>
+        <v>91608</v>
       </c>
       <c r="D228" s="4">
-        <v>533817</v>
+        <v>535265</v>
       </c>
       <c r="E228" s="4">
-        <v>2766840</v>
+        <v>2770566</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19652</v>
+        <v>19667</v>
       </c>
       <c r="C229" s="4">
         <v>636</v>
       </c>
       <c r="D229" s="4">
-        <v>9621</v>
+        <v>9639</v>
       </c>
       <c r="E229" s="4">
-        <v>29909</v>
+        <v>29942</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17871</v>
+        <v>17885</v>
       </c>
       <c r="C230" s="4">
         <v>1139</v>
       </c>
       <c r="D230" s="4">
-        <v>12589</v>
+        <v>12616</v>
       </c>
       <c r="E230" s="4">
-        <v>31599</v>
+        <v>31640</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17701</v>
+        <v>17728</v>
       </c>
       <c r="C231" s="4">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="D231" s="4">
-        <v>11297</v>
+        <v>11335</v>
       </c>
       <c r="E231" s="4">
-        <v>31595</v>
+        <v>31662</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C232" s="4">
         <v>103</v>
       </c>
       <c r="D232" s="4">
-        <v>4739</v>
+        <v>4753</v>
       </c>
       <c r="E232" s="4">
-        <v>6189</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>51632</v>
+        <v>51658</v>
       </c>
       <c r="C233" s="4">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D233" s="4">
-        <v>7107</v>
+        <v>7173</v>
       </c>
       <c r="E233" s="4">
-        <v>59372</v>
+        <v>59465</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>74831</v>
+        <v>74895</v>
       </c>
       <c r="C234" s="4">
         <v>1367</v>
       </c>
       <c r="D234" s="4">
-        <v>37895</v>
+        <v>38150</v>
       </c>
       <c r="E234" s="4">
-        <v>114093</v>
+        <v>114412</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>37858</v>
+        <v>37923</v>
       </c>
       <c r="C235" s="4">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="D235" s="4">
-        <v>25149</v>
+        <v>25234</v>
       </c>
       <c r="E235" s="4">
-        <v>65530</v>
+        <v>65682</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>83349</v>
+        <v>83477</v>
       </c>
       <c r="C236" s="4">
         <v>6019</v>
       </c>
       <c r="D236" s="4">
-        <v>37208</v>
+        <v>37277</v>
       </c>
       <c r="E236" s="4">
-        <v>126576</v>
+        <v>126773</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>184968</v>
+        <v>185101</v>
       </c>
       <c r="C237" s="4">
         <v>3411</v>
       </c>
       <c r="D237" s="4">
-        <v>52890</v>
+        <v>52953</v>
       </c>
       <c r="E237" s="4">
-        <v>241269</v>
+        <v>241465</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>70329</v>
+        <v>70392</v>
       </c>
       <c r="C238" s="4">
         <v>2429</v>
       </c>
       <c r="D238" s="4">
-        <v>13674</v>
+        <v>13737</v>
       </c>
       <c r="E238" s="4">
-        <v>86432</v>
+        <v>86558</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6602</v>
+        <v>6607</v>
       </c>
       <c r="C239" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D239" s="4">
-        <v>3470</v>
+        <v>3534</v>
       </c>
       <c r="E239" s="4">
-        <v>10315</v>
+        <v>10385</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61171</v>
+        <v>61208</v>
       </c>
       <c r="C240" s="4">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D240" s="4">
-        <v>33153</v>
+        <v>33308</v>
       </c>
       <c r="E240" s="4">
-        <v>96445</v>
+        <v>96638</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>632247</v>
+        <v>634944</v>
       </c>
       <c r="C241" s="4">
-        <v>7240</v>
+        <v>7242</v>
       </c>
       <c r="D241" s="4">
-        <v>172203</v>
+        <v>172880</v>
       </c>
       <c r="E241" s="4">
-        <v>811690</v>
+        <v>815066</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>53769</v>
+        <v>53810</v>
       </c>
       <c r="C242" s="4">
         <v>2684</v>
       </c>
       <c r="D242" s="4">
-        <v>19298</v>
+        <v>19337</v>
       </c>
       <c r="E242" s="4">
-        <v>75751</v>
+        <v>75831</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="C243" s="4">
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5576</v>
+        <v>5607</v>
       </c>
       <c r="E243" s="4">
-        <v>8837</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>173312</v>
+        <v>173379</v>
       </c>
       <c r="C244" s="4">
-        <v>12310</v>
+        <v>12314</v>
       </c>
       <c r="D244" s="4">
-        <v>90848</v>
+        <v>91507</v>
       </c>
       <c r="E244" s="4">
-        <v>276470</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20208</v>
+        <v>20245</v>
       </c>
       <c r="C245" s="4">
         <v>865</v>
       </c>
       <c r="D245" s="4">
-        <v>38850</v>
+        <v>39403</v>
       </c>
       <c r="E245" s="4">
-        <v>59923</v>
+        <v>60513</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>57435</v>
+        <v>57475</v>
       </c>
       <c r="C246" s="4">
         <v>261</v>
       </c>
       <c r="D246" s="4">
-        <v>11206</v>
+        <v>11243</v>
       </c>
       <c r="E246" s="4">
-        <v>68902</v>
+        <v>68979</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>945856</v>
+        <v>946770</v>
       </c>
       <c r="C247" s="4">
-        <v>40727</v>
+        <v>40733</v>
       </c>
       <c r="D247" s="4">
-        <v>251442</v>
+        <v>252222</v>
       </c>
       <c r="E247" s="4">
-        <v>1238025</v>
+        <v>1239725</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>59409</v>
+        <v>59515</v>
       </c>
       <c r="C248" s="4">
         <v>1685</v>
       </c>
       <c r="D248" s="4">
-        <v>28673</v>
+        <v>29167</v>
       </c>
       <c r="E248" s="4">
-        <v>89767</v>
+        <v>90367</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5279,10 +5279,10 @@
         <v>75</v>
       </c>
       <c r="D249" s="4">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="E249" s="4">
-        <v>3275</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>84591</v>
+        <v>84663</v>
       </c>
       <c r="C250" s="4">
-        <v>4242</v>
+        <v>4246</v>
       </c>
       <c r="D250" s="4">
-        <v>20226</v>
+        <v>20285</v>
       </c>
       <c r="E250" s="4">
-        <v>109059</v>
+        <v>109194</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33074</v>
+        <v>33124</v>
       </c>
       <c r="C251" s="4">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D251" s="4">
-        <v>22375</v>
+        <v>22593</v>
       </c>
       <c r="E251" s="4">
-        <v>57963</v>
+        <v>58233</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="E252" s="4">
-        <v>6057</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12710</v>
+        <v>12733</v>
       </c>
       <c r="C253" s="4">
         <v>725</v>
       </c>
       <c r="D253" s="4">
-        <v>8026</v>
+        <v>8053</v>
       </c>
       <c r="E253" s="4">
-        <v>21461</v>
+        <v>21511</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20090</v>
+        <v>20119</v>
       </c>
       <c r="C254" s="4">
         <v>172</v>
       </c>
       <c r="D254" s="4">
-        <v>19891</v>
+        <v>19947</v>
       </c>
       <c r="E254" s="4">
-        <v>40153</v>
+        <v>40238</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>16829</v>
+        <v>16835</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3869</v>
+        <v>3895</v>
       </c>
       <c r="E255" s="4">
-        <v>20969</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>430799</v>
+        <v>432720</v>
       </c>
       <c r="C256" s="4">
-        <v>14557</v>
+        <v>14558</v>
       </c>
       <c r="D256" s="4">
-        <v>19154</v>
+        <v>19221</v>
       </c>
       <c r="E256" s="4">
-        <v>464510</v>
+        <v>466499</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>45578128</v>
+        <v>45659258</v>
       </c>
       <c r="C257" s="4">
-        <v>1818529</v>
+        <v>1819297</v>
       </c>
       <c r="D257" s="4">
-        <v>12212868</v>
+        <v>12265959</v>
       </c>
       <c r="E257" s="4">
-        <v>59609525</v>
+        <v>59744514</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
